--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H2">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N2">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q2">
-        <v>0.7424267437511112</v>
+        <v>2.050106938925556</v>
       </c>
       <c r="R2">
-        <v>6.681840693759999</v>
+        <v>18.45096245033</v>
       </c>
       <c r="S2">
-        <v>0.002894463805866053</v>
+        <v>0.02458300914702838</v>
       </c>
       <c r="T2">
-        <v>0.002894463805866053</v>
+        <v>0.02458300914702838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H3">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
         <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q3">
-        <v>0.01351386771555555</v>
+        <v>0.02694513125911111</v>
       </c>
       <c r="R3">
-        <v>0.12162480944</v>
+        <v>0.242506181332</v>
       </c>
       <c r="S3">
-        <v>5.268587279373416E-05</v>
+        <v>0.0003231013932169622</v>
       </c>
       <c r="T3">
-        <v>5.268587279373416E-05</v>
+        <v>0.0003231013932169622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H4">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N4">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q4">
-        <v>0.01536551535111111</v>
+        <v>0.005210208211333333</v>
       </c>
       <c r="R4">
-        <v>0.13828963816</v>
+        <v>0.046891873902</v>
       </c>
       <c r="S4">
-        <v>5.990480329084153E-05</v>
+        <v>6.247605609503312E-05</v>
       </c>
       <c r="T4">
-        <v>5.990480329084154E-05</v>
+        <v>6.247605609503314E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H5">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N5">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q5">
-        <v>0.02117574064888889</v>
+        <v>0.01858035097955556</v>
       </c>
       <c r="R5">
-        <v>0.19058166584</v>
+        <v>0.167223158816</v>
       </c>
       <c r="S5">
-        <v>8.255685208878048E-05</v>
+        <v>0.0002227985913382629</v>
       </c>
       <c r="T5">
-        <v>8.255685208878048E-05</v>
+        <v>0.0002227985913382628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H6">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N6">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q6">
-        <v>0.02019128907555555</v>
+        <v>0.09483776070044445</v>
       </c>
       <c r="R6">
-        <v>0.18172160168</v>
+        <v>0.8535398463039999</v>
       </c>
       <c r="S6">
-        <v>7.871881760036167E-05</v>
+        <v>0.00113720776927109</v>
       </c>
       <c r="T6">
-        <v>7.871881760036167E-05</v>
+        <v>0.00113720776927109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H7">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I7">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J7">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N7">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q7">
-        <v>0.02319454867555555</v>
+        <v>0.03202396803955555</v>
       </c>
       <c r="R7">
-        <v>0.20875093808</v>
+        <v>0.288215712356</v>
       </c>
       <c r="S7">
-        <v>9.042748284576927E-05</v>
+        <v>0.0003840021631520976</v>
       </c>
       <c r="T7">
-        <v>9.042748284576927E-05</v>
+        <v>0.0003840021631520976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.936876</v>
       </c>
       <c r="I8">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J8">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N8">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q8">
-        <v>35.25897939005156</v>
+        <v>48.83059371594889</v>
       </c>
       <c r="R8">
-        <v>317.3308145104639</v>
+        <v>439.4753434435401</v>
       </c>
       <c r="S8">
-        <v>0.1374625045976176</v>
+        <v>0.58553186137847</v>
       </c>
       <c r="T8">
-        <v>0.1374625045976175</v>
+        <v>0.5855318613784699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.936876</v>
       </c>
       <c r="I9">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J9">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
         <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q9">
-        <v>0.6417942070017777</v>
+        <v>0.6417942070017778</v>
       </c>
       <c r="R9">
-        <v>5.776147863015999</v>
+        <v>5.776147863016</v>
       </c>
       <c r="S9">
-        <v>0.002502132525015699</v>
+        <v>0.007695809697372784</v>
       </c>
       <c r="T9">
-        <v>0.002502132525015698</v>
+        <v>0.007695809697372783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.936876</v>
       </c>
       <c r="I10">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J10">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N10">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q10">
-        <v>0.7297317797915557</v>
+        <v>0.1240996532973333</v>
       </c>
       <c r="R10">
-        <v>6.567586018124</v>
+        <v>1.116896879676</v>
       </c>
       <c r="S10">
-        <v>0.002844970554165484</v>
+        <v>0.001488089647533345</v>
       </c>
       <c r="T10">
-        <v>0.002844970554165484</v>
+        <v>0.001488089647533345</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.936876</v>
       </c>
       <c r="I11">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J11">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N11">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q11">
-        <v>1.005668248608445</v>
+        <v>0.4425571918008889</v>
       </c>
       <c r="R11">
-        <v>9.051014237475998</v>
+        <v>3.983014726208</v>
       </c>
       <c r="S11">
-        <v>0.003920750930386308</v>
+        <v>0.005306741461899662</v>
       </c>
       <c r="T11">
-        <v>0.003920750930386307</v>
+        <v>0.00530674146189966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.936876</v>
       </c>
       <c r="I12">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J12">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N12">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q12">
-        <v>0.9589151406057776</v>
+        <v>2.258898828039111</v>
       </c>
       <c r="R12">
-        <v>8.630236265451998</v>
+        <v>20.330089452352</v>
       </c>
       <c r="S12">
-        <v>0.003738476813694692</v>
+        <v>0.02708665069979239</v>
       </c>
       <c r="T12">
-        <v>0.003738476813694692</v>
+        <v>0.02708665069979239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.936876</v>
       </c>
       <c r="I13">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J13">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N13">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q13">
-        <v>1.101544523545778</v>
+        <v>0.7627647820808888</v>
       </c>
       <c r="R13">
-        <v>9.913900711911998</v>
+        <v>6.864883038727999</v>
       </c>
       <c r="S13">
-        <v>0.004294539199711376</v>
+        <v>0.009146378298076914</v>
       </c>
       <c r="T13">
-        <v>0.004294539199711375</v>
+        <v>0.009146378298076912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H14">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I14">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J14">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N14">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q14">
-        <v>191.8236815298027</v>
+        <v>25.86612718825056</v>
       </c>
       <c r="R14">
-        <v>1726.413133768224</v>
+        <v>232.795144694255</v>
       </c>
       <c r="S14">
-        <v>0.7478538562481024</v>
+        <v>0.3101629623283045</v>
       </c>
       <c r="T14">
-        <v>0.7478538562481023</v>
+        <v>0.3101629623283045</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H15">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I15">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J15">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
         <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q15">
-        <v>3.491630492467333</v>
+        <v>0.3399657739891112</v>
       </c>
       <c r="R15">
-        <v>31.424674432206</v>
+        <v>3.059691965902001</v>
       </c>
       <c r="S15">
-        <v>0.01361265359709751</v>
+        <v>0.004076558921375553</v>
       </c>
       <c r="T15">
-        <v>0.01361265359709751</v>
+        <v>0.004076558921375553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H16">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I16">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J16">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N16">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q16">
-        <v>3.970047884267668</v>
+        <v>0.06573701386633334</v>
       </c>
       <c r="R16">
-        <v>35.730430958409</v>
+        <v>0.591633124797</v>
       </c>
       <c r="S16">
-        <v>0.01547783670953012</v>
+        <v>0.0007882582037507482</v>
       </c>
       <c r="T16">
-        <v>0.01547783670953012</v>
+        <v>0.0007882582037507483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H17">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I17">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J17">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N17">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q17">
-        <v>5.471258362632334</v>
+        <v>0.2344276352195556</v>
       </c>
       <c r="R17">
-        <v>49.241325263691</v>
+        <v>2.109848716976</v>
       </c>
       <c r="S17">
-        <v>0.02133053454293422</v>
+        <v>0.00281104199566237</v>
       </c>
       <c r="T17">
-        <v>0.02133053454293422</v>
+        <v>0.00281104199566237</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H18">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I18">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J18">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N18">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q18">
-        <v>5.216901785806333</v>
+        <v>1.196564693260445</v>
       </c>
       <c r="R18">
-        <v>46.95211607225699</v>
+        <v>10.769082239344</v>
       </c>
       <c r="S18">
-        <v>0.02033888666440136</v>
+        <v>0.01434811045264251</v>
       </c>
       <c r="T18">
-        <v>0.02033888666440136</v>
+        <v>0.01434811045264251</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H19">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I19">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J19">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N19">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q19">
-        <v>5.992865633971333</v>
+        <v>0.4040452791295556</v>
       </c>
       <c r="R19">
-        <v>53.93579070574199</v>
+        <v>3.636407512166</v>
       </c>
       <c r="S19">
-        <v>0.02336409998285784</v>
+        <v>0.004844941795017346</v>
       </c>
       <c r="T19">
-        <v>0.02336409998285784</v>
+        <v>0.004844941795017346</v>
       </c>
     </row>
   </sheetData>
